--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">schema:jobTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">kk{role}</t>
+    <t xml:space="preserve">Kk {role}</t>
   </si>
   <si>
     <t xml:space="preserve">schema:description</t>
@@ -155,7 +155,10 @@
     <t xml:space="preserve">schema:creator</t>
   </si>
   <si>
-    <t xml:space="preserve">{author}</t>
+    <t xml:space="preserve">{author}kk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{img}kk{img}</t>
   </si>
   <si>
     <t xml:space="preserve">schema:about</t>
@@ -705,7 +708,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,7 +853,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -864,10 +867,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -881,13 +884,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -895,10 +898,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -950,25 +953,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -984,13 +987,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Source" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PredicateObjectMaps" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Functions" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Function_new" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -164,7 +165,7 @@
     <t xml:space="preserve">schema:about</t>
   </si>
   <si>
-    <t xml:space="preserve">{preview}</t>
+    <t xml:space="preserve">&lt;Fun1&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">schema:contentReferenceTime</t>
@@ -203,13 +204,37 @@
     <t xml:space="preserve">Param5</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Fun1&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">sql:upper</t>
   </si>
   <si>
-    <t xml:space="preserve">{sport}</t>
+    <t xml:space="preserve">grel:valueParameter {sport}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:p_string_find “ “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fno:executes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:string_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:valueParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:p_string_find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:p_string_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
   </si>
 </sst>
 </file>
@@ -219,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -280,6 +305,21 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +369,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +396,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -577,7 +629,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -707,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -872,9 +924,7 @@
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -987,15 +1037,17 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1020,4 +1072,167 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Subject" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Source" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PredicateObjectMaps" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Functions" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Function_new" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Functions_old" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Functions" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -81,24 +81,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">PERSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">source</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/user/data/people.csv</t>
+    <t xml:space="preserve">data/employeds.csv</t>
   </si>
   <si>
     <t xml:space="preserve">format</t>
   </si>
   <si>
-    <t xml:space="preserve">CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data/employeds.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">csv</t>
   </si>
   <si>
@@ -222,7 +213,7 @@
     <t xml:space="preserve">grel:valueParameter</t>
   </si>
   <si>
-    <t xml:space="preserve">sport</t>
+    <t xml:space="preserve">{sport}</t>
   </si>
   <si>
     <t xml:space="preserve">grel:p_string_find</t>
@@ -630,7 +621,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,72 +642,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -737,7 +708,7 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B5" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B3" type="list">
       <formula1>"source;format;iterator;table"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -775,22 +746,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -798,13 +769,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -815,13 +786,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -832,13 +803,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -849,7 +820,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -857,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -868,13 +839,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -885,13 +856,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -902,13 +873,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -919,10 +890,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -934,13 +905,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -948,13 +919,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -1003,25 +974,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1037,16 +1008,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1082,7 +1053,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,13 +1066,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -1115,13 +1086,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1135,13 +1106,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1155,13 +1126,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1175,13 +1146,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Subject" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Source" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PredicateObjectMaps" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Functions_old" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Functions" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Functions" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -175,33 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">FunctionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql:upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:valueParameter {sport}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:p_string_find “ “</t>
   </si>
   <si>
     <t xml:space="preserve">fno:executes</t>
@@ -958,98 +930,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.97"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1089,10 +969,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1109,10 +989,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1129,10 +1009,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1149,10 +1029,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -131,7 +131,10 @@
     <t xml:space="preserve">schema:description</t>
   </si>
   <si>
-    <t xml:space="preserve">{bio}</t>
+    <t xml:space="preserve">http://ex.com/{bio}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anyURI</t>
   </si>
   <si>
     <t xml:space="preserve">schema:image</t>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">{article}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iri </t>
   </si>
   <si>
     <t xml:space="preserve">FunctionID</t>
@@ -702,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -792,7 +798,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -800,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -814,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -828,10 +834,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -845,10 +851,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -862,10 +868,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -876,28 +882,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -915,6 +921,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://ex.com/{bio}"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -932,7 +941,7 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +955,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -966,13 +975,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -986,13 +995,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1006,13 +1015,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1026,13 +1035,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t xml:space="preserve">Prefix</t>
   </si>
@@ -191,19 +191,25 @@
     <t xml:space="preserve">grel:valueParameter</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;Fun2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:p_string_find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:p_string_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grel:upper</t>
+  </si>
+  <si>
     <t xml:space="preserve">{sport}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:p_string_find</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:p_string_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -939,10 +945,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1053,8 +1059,28 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/PycharmProjects/Mapeathor/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A50842-8241-EA48-8A20-62B52F011011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Subject" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Source" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PredicateObjectMaps" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Functions" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Prefix" sheetId="1" r:id="rId1"/>
+    <sheet name="Subject" sheetId="2" r:id="rId2"/>
+    <sheet name="Source" sheetId="3" r:id="rId3"/>
+    <sheet name="Predicate_Object" sheetId="4" r:id="rId4"/>
+    <sheet name="Function" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,200 +31,197 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
-    <t xml:space="preserve">Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://schema.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ex.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://w3.org/ns/sql#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ex.com/employed/{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:Article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ex.com/news/{news_id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data/employeds.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data/news.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InnerRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OuterRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:jobTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kk {role}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ex.com/{bio}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anyURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{img}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{title}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{author}kk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{img}kk{img}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Fun1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:contentReferenceTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema:articleBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{article}</t>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>https://schema.org/</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>http://ex.com/</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>http://w3.org/ns/sql#</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>EMPLOYED</t>
+  </si>
+  <si>
+    <t>schema:Person</t>
+  </si>
+  <si>
+    <t>http://ex.com/employed/{id}</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>schema:Article</t>
+  </si>
+  <si>
+    <t>http://ex.com/news/{news_id}</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>data/employeds.csv</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>data/news.csv</t>
+  </si>
+  <si>
+    <t>Predicate</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>ReferenceID</t>
+  </si>
+  <si>
+    <t>InnerRef</t>
+  </si>
+  <si>
+    <t>OuterRef</t>
+  </si>
+  <si>
+    <t>schema:name</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>schema:jobTitle</t>
+  </si>
+  <si>
+    <t>Kk {role}</t>
+  </si>
+  <si>
+    <t>schema:description</t>
+  </si>
+  <si>
+    <t>http://ex.com/{bio}</t>
+  </si>
+  <si>
+    <t>anyURI</t>
+  </si>
+  <si>
+    <t>schema:image</t>
+  </si>
+  <si>
+    <t>{img}</t>
+  </si>
+  <si>
+    <t>{title}</t>
+  </si>
+  <si>
+    <t>schema:creator</t>
+  </si>
+  <si>
+    <t>{author}kk</t>
+  </si>
+  <si>
+    <t>{img}kk{img}</t>
+  </si>
+  <si>
+    <t>schema:about</t>
+  </si>
+  <si>
+    <t>&lt;Fun1&gt;</t>
+  </si>
+  <si>
+    <t>schema:contentReferenceTime</t>
+  </si>
+  <si>
+    <t>{date}</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>schema:articleBody</t>
+  </si>
+  <si>
+    <t>{article}</t>
   </si>
   <si>
     <t xml:space="preserve">iri </t>
   </si>
   <si>
-    <t xml:space="preserve">FunctionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fno:executes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:string_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:valueParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Fun2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:p_string_find</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:p_string_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grel:upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sport}</t>
+    <t>FunctionID</t>
+  </si>
+  <si>
+    <t>fno:executes</t>
+  </si>
+  <si>
+    <t>grel:string_replace</t>
+  </si>
+  <si>
+    <t>grel:valueParameter</t>
+  </si>
+  <si>
+    <t>&lt;Fun2&gt;</t>
+  </si>
+  <si>
+    <t>grel:p_string_find</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>grel:p_string_replace</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>grel:upper</t>
+  </si>
+  <si>
+    <t>{sport}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -228,22 +230,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -258,7 +245,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -266,22 +253,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
@@ -305,7 +290,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -313,89 +298,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -454,30 +382,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.97"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -493,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -501,54 +737,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://ex.com/"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://w3.org/ns/sql#"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.97"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -559,8 +781,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -570,8 +792,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -581,41 +803,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://ex.com/employed/{id}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://ex.com/news/{news_id}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.97"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -626,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -637,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -648,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -659,7 +872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -670,65 +883,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"source;format;iterator;table"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.97"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="10" width="9" customWidth="1"/>
+    <col min="11" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -751,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -768,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -785,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -802,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -821,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -838,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -855,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -872,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -887,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -901,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -915,59 +1100,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C11" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://ex.com/{bio}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.36"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -979,7 +1151,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -999,7 +1171,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1019,7 +1191,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -1039,7 +1211,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -1059,7 +1231,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
@@ -1070,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1081,42 +1253,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
